--- a/big-data/big-data-capstone/project/data/beer_n_ARK Cosmic Dancer.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_ARK Cosmic Dancer.xlsx
@@ -935,7 +935,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>colui72(3,999)
+          <t>colui72(4,004)
 🇭🇰Yuen Long, Hong Kong
 4.0June 4, 2017
 Hay straw colour, soapy white head and round lacing. Rich aroma, citrus, honey, floral, spices, peach. Taste gets ale malts, peach, citrus, spices, honey, caramel. Medium bitterness,…
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jmgreenuk(17,115)
+          <t>jmgreenuk(17,138)
 🇲🇾Kuala Lumpur, Malaysia
 3.2October 10, 2016
 Bottle at Brew Beers and Ciders, Sukhumvit, Bangkok. Poured a hazy straw colour with a frothy white head. The aroma is lager malt, light hop, some dry yeast. The flavour is moderate bitter…
